--- a/reports/yuki/ip_address_sheet.xlsx
+++ b/reports/yuki/ip_address_sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YaKarta\Repos\obmanka\reports\yuki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12792E60-D8A6-40E1-9232-9A927C28F439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8A74CA-131F-4932-8D47-C762400C17FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Имя устр-ва</t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t>VPN</t>
+  </si>
+  <si>
+    <t>5.5.5.1/30</t>
+  </si>
+  <si>
+    <t>5.5.5.2/30</t>
+  </si>
+  <si>
+    <t>Connect</t>
   </si>
 </sst>
 </file>
@@ -202,10 +211,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,16 +554,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F19"/>
+  <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="38.7109375" customWidth="1"/>
   </cols>
@@ -600,7 +609,7 @@
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="1"/>
@@ -625,10 +634,10 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -636,10 +645,10 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -650,7 +659,7 @@
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -658,10 +667,10 @@
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -669,10 +678,10 @@
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -680,10 +689,10 @@
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -694,7 +703,7 @@
       <c r="C14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -716,7 +725,7 @@
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -727,11 +736,60 @@
       <c r="C19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D18:D19"/>
+  <mergeCells count="2">
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D24:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/reports/yuki/ip_address_sheet.xlsx
+++ b/reports/yuki/ip_address_sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YaKarta\Repos\obmanka\reports\yuki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8A74CA-131F-4932-8D47-C762400C17FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE3B052-6CD2-409E-A8DF-32496720CE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Имя устр-ва</t>
   </si>
@@ -65,30 +65,9 @@
     <t>10.2.30.1/30</t>
   </si>
   <si>
-    <t>10:2:30::1/126</t>
-  </si>
-  <si>
-    <t>10.2.10.1/28</t>
-  </si>
-  <si>
-    <t>10.2.0.1/26</t>
-  </si>
-  <si>
-    <t>10:2:0::1/122</t>
-  </si>
-  <si>
     <t>10.2.20.1/30</t>
   </si>
   <si>
-    <t>10:2:20::1/126</t>
-  </si>
-  <si>
-    <t>10:2:0::10/122</t>
-  </si>
-  <si>
-    <t>10.2.0.10/26</t>
-  </si>
-  <si>
     <t>10.2.50.10/24</t>
   </si>
   <si>
@@ -104,30 +83,9 @@
     <t>10.2.30.2/30</t>
   </si>
   <si>
-    <t>10:2:30::2/126</t>
-  </si>
-  <si>
     <t>10.2.20.2/30</t>
   </si>
   <si>
-    <t>10:2:20::2/126</t>
-  </si>
-  <si>
-    <t>10.2.10.10/28</t>
-  </si>
-  <si>
-    <t>10:2:10::10/122</t>
-  </si>
-  <si>
-    <t>10:2:10::1/122</t>
-  </si>
-  <si>
-    <t>subnet_HQ - 10.2.0.0/26, 10:2::/122</t>
-  </si>
-  <si>
-    <t>subnet_branch - 10.2.10.0/28, 10:2:10::/122</t>
-  </si>
-  <si>
     <t>6.6.6.1/30</t>
   </si>
   <si>
@@ -137,13 +95,46 @@
     <t>VPN</t>
   </si>
   <si>
-    <t>5.5.5.1/30</t>
-  </si>
-  <si>
-    <t>5.5.5.2/30</t>
-  </si>
-  <si>
-    <t>Connect</t>
+    <t>10:2:10::1/64</t>
+  </si>
+  <si>
+    <t>10:2:30::1/64</t>
+  </si>
+  <si>
+    <t>10:2:10::10/64</t>
+  </si>
+  <si>
+    <t>10:2:0::1/64</t>
+  </si>
+  <si>
+    <t>10:2:20::1/64</t>
+  </si>
+  <si>
+    <t>10:2:0::10/64</t>
+  </si>
+  <si>
+    <t>10:2:20::2/64</t>
+  </si>
+  <si>
+    <t>10:2:30::2/64</t>
+  </si>
+  <si>
+    <t>subnet_HQ - 10.2.0.0/26, 10:2::/64</t>
+  </si>
+  <si>
+    <t>subnet_branch - 10.2.10.0/28, 10:2:10::/64</t>
+  </si>
+  <si>
+    <t>10.2.10.1/29</t>
+  </si>
+  <si>
+    <t>10.2.10.10/29</t>
+  </si>
+  <si>
+    <t>10.2.0.1/28</t>
+  </si>
+  <si>
+    <t>10.2.0.10/28</t>
   </si>
 </sst>
 </file>
@@ -554,16 +545,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F27"/>
+  <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="38.7109375" customWidth="1"/>
   </cols>
@@ -599,7 +590,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -607,14 +598,14 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -625,7 +616,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -635,10 +626,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -646,10 +637,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -657,10 +648,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -668,10 +659,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -679,10 +670,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -690,10 +681,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -701,10 +692,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -712,10 +703,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -723,10 +714,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -734,62 +725,13 @@
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D24:D27"/>
+  <mergeCells count="1">
+    <mergeCell ref="D18:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
